--- a/原料管组批切割序列.xlsx
+++ b/原料管组批切割序列.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>此组管每根舍弃长度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>此组原料管切割方式</t>
         </is>
       </c>
@@ -468,7 +473,10 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>[5866, 6134]</t>
         </is>
@@ -487,7 +495,10 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>[268, 5598, 6134]</t>
         </is>
@@ -506,7 +517,10 @@
       <c r="D4" t="n">
         <v>0.9378333333333333</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>746</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>[536, 746, 4584, 6134]</t>
         </is>
@@ -525,7 +539,10 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>[1550, 4316, 6134]</t>
         </is>
@@ -544,7 +561,10 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>[1818, 4048, 6134]</t>
         </is>
@@ -563,7 +583,10 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>[2086, 3780, 6134]</t>
         </is>
@@ -582,7 +605,10 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>[2354, 3512, 6134]</t>
         </is>
@@ -601,7 +627,10 @@
       <c r="D9" t="n">
         <v>0.9299999999999999</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>840</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>[840, 2404, 2622, 6134]</t>
         </is>
@@ -620,7 +649,10 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>[2136, 3730, 6134]</t>
         </is>
@@ -639,7 +671,10 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>[1868, 3998, 6134]</t>
         </is>
@@ -658,7 +693,10 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>[1600, 4266, 6134]</t>
         </is>
@@ -677,7 +715,10 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>[1332, 4534, 6134]</t>
         </is>
@@ -696,7 +737,10 @@
       <c r="D14" t="n">
         <v>0.9113333333333333</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>[1064, 4802, 6134]</t>
         </is>
@@ -715,7 +759,10 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>[1550, 3516, 6134]</t>
         </is>
@@ -734,7 +781,10 @@
       <c r="D16" t="n">
         <v>0.9960714285714286</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>44</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>[44, 2404, 2618, 6134]</t>
         </is>
@@ -753,7 +803,10 @@
       <c r="D17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>[1336, 3730, 6134]</t>
         </is>
@@ -772,7 +825,10 @@
       <c r="D18" t="n">
         <v>0.9760714285714286</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>268</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>[268, 4798, 6134]</t>
         </is>
@@ -791,7 +847,10 @@
       <c r="D19" t="n">
         <v>0.9569642857142857</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>482</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>[482, 4584, 6134]</t>
         </is>
@@ -810,7 +869,10 @@
       <c r="D20" t="n">
         <v>0.9082978723404256</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>862</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>[862, 2404, 6134]</t>
         </is>
@@ -829,7 +891,10 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>[3730, 5670]</t>
         </is>
@@ -848,7 +913,10 @@
       <c r="D22" t="n">
         <v>0.9576595744680851</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>398</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>[398, 464, 2404, 6134]</t>
         </is>
@@ -867,7 +935,10 @@
       <c r="D23" t="n">
         <v>0.04936170212765956</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>8936</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>[464, 8936]</t>
         </is>

--- a/原料管组批切割序列.xlsx
+++ b/原料管组批切割序列.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>此组原料管长度</t>
   </si>
@@ -22,10 +22,13 @@
     <t>此组原料管数量</t>
   </si>
   <si>
+    <t>此组管每根使用长度</t>
+  </si>
+  <si>
+    <t>此组管每根舍弃长度</t>
+  </si>
+  <si>
     <t>此组原料管利用率</t>
-  </si>
-  <si>
-    <t>此组管每根舍弃长度</t>
   </si>
   <si>
     <t>此组原料管切割方式</t>
@@ -1088,21 +1091,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="3" width="17.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="26.5555555555556" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="26.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1121,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1130,16 +1136,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1150,16 +1159,19 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1170,16 +1182,19 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>0.937833333333333</v>
+        <v>11254</v>
       </c>
       <c r="E4">
         <v>746</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>0.937833333333333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1190,16 +1205,19 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1210,16 +1228,19 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1230,16 +1251,19 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1250,16 +1274,19 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1270,16 +1297,19 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.93</v>
+        <v>11160</v>
       </c>
       <c r="E9">
         <v>840</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>0.93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1290,16 +1320,19 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1310,16 +1343,19 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1330,16 +1366,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1350,16 +1389,19 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1370,16 +1412,19 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>0.911333333333333</v>
+        <v>10936</v>
       </c>
       <c r="E14">
         <v>1064</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>0.911333333333333</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1390,16 +1435,19 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>11200</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1410,16 +1458,19 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0.996071428571429</v>
+        <v>11156</v>
       </c>
       <c r="E16">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>0.996071428571429</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1430,16 +1481,19 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>11200</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1450,16 +1504,19 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>0.976071428571429</v>
+        <v>10932</v>
       </c>
       <c r="E18">
         <v>268</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>0.976071428571429</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1470,16 +1527,19 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0.956964285714286</v>
+        <v>10718</v>
       </c>
       <c r="E19">
         <v>482</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>0.956964285714286</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1490,16 +1550,19 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.908297872340426</v>
+        <v>8538</v>
       </c>
       <c r="E20">
         <v>862</v>
       </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>0.908297872340426</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1510,16 +1573,19 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>9400</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1530,16 +1596,19 @@
         <v>13</v>
       </c>
       <c r="D22">
-        <v>0.957659574468085</v>
+        <v>9002</v>
       </c>
       <c r="E22">
         <v>398</v>
       </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22">
+        <v>0.957659574468085</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1550,13 +1619,16 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.0493617021276596</v>
+        <v>464</v>
       </c>
       <c r="E23">
         <v>8936</v>
       </c>
-      <c r="F23" t="s">
-        <v>26</v>
+      <c r="F23">
+        <v>0.0493617021276596</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
